--- a/data/WM_Buildings.xlsx
+++ b/data/WM_Buildings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hac13/Development/CairoUrbanNews/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/am618_duke_edu/Documents/Mestyan_files/Github/CairoUrbanNews/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D6E4C3-DC2F-F14B-85CF-42C60B200995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{E9D6E4C3-DC2F-F14B-85CF-42C60B200995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A995C6-1174-AB45-AAFA-501286E189E1}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="760" windowWidth="27400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -4284,12 +4284,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane xSplit="7420" ySplit="2720" topLeftCell="Q76" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <pane xSplit="7400" ySplit="2720" topLeftCell="T76" activePane="bottomRight"/>
       <selection activeCell="F3" sqref="F3"/>
-      <selection pane="topRight" activeCell="U1" sqref="U1:U1048576"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="A40:XFD40"/>
-      <selection pane="bottomRight" activeCell="S81" sqref="S81"/>
+      <selection pane="topRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomRight" activeCell="U80" sqref="U80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4302,8 +4302,8 @@
     <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
     <col min="10" max="11" width="14.83203125" style="1" customWidth="1"/>
     <col min="12" max="15" width="10.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="35.5" style="22" customWidth="1"/>
